--- a/resources/wheels/307 - Бабушкин.xlsx
+++ b/resources/wheels/307 - Бабушкин.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -676,16 +676,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -878,9 +878,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -974,7 +974,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -984,7 +986,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -994,7 +998,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -1513,16 +1519,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,9 +1721,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1811,7 +1817,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -1821,7 +1829,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -1831,7 +1841,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -2350,16 +2362,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2552,9 +2564,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2648,7 +2660,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -2658,7 +2672,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -2668,7 +2684,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -3187,16 +3205,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,9 +3407,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3485,7 +3503,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -3495,7 +3515,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -3505,7 +3527,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4024,16 +4048,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4226,9 +4250,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4322,7 +4346,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -4332,7 +4358,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -4342,7 +4370,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4861,16 +4891,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,9 +5093,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5159,7 +5189,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -5169,7 +5201,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -5179,7 +5213,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -5698,16 +5734,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5900,9 +5936,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5996,7 +6032,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6006,7 +6044,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6016,7 +6056,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -6535,16 +6577,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6737,9 +6779,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6833,7 +6875,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6843,7 +6887,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6853,7 +6899,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -7372,16 +7420,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7574,9 +7622,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7670,7 +7718,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -7680,7 +7730,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -7690,7 +7742,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -8209,16 +8263,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8411,9 +8465,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8507,7 +8561,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -8517,7 +8573,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -8527,7 +8585,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -9046,16 +9106,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9248,9 +9308,9 @@
       <c r="F16" s="18">
         <v>27.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.699999999999996</v>
+        <v>43.927</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9344,7 +9404,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1.237</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -9354,7 +9416,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.712</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -9364,7 +9428,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.278</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
